--- a/expiredate.xlsx
+++ b/expiredate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QiaoMichael/workspace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QiaoMichael/workspace/GitStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>2018R01</t>
+    <t>2018R02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
